--- a/Tournament/SCF.xlsx
+++ b/Tournament/SCF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\星海大家庭\SCFTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>SCF 業餘戰隊聯賽 選手名單</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,26 @@
   </si>
   <si>
     <t>生涯最高階級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事項：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 參賽選手生涯遊戲總數至少需大於1000場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 嚴禁以小帳號參賽、借帳號及代打之情事，當事人及其所屬之戰隊終身禁賽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 提供之資料務必正確屬實，如有謊報資料之情事當事人及所屬之戰隊終身禁賽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 無生涯最高階級者不得參賽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,18 +78,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -88,6 +108,15 @@
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -229,8 +258,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,48 +547,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D31"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="16.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -561,7 +596,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -575,161 +610,193 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="16.5" thickBot="1">
+    <row r="31" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
     </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
